--- a/ExcelIntegration/data/welsh_vocab_builder.xlsx
+++ b/ExcelIntegration/data/welsh_vocab_builder.xlsx
@@ -8,144 +8,160 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sandbox\git\aadennis\PythonSandboxAA\ExcelIntegration\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFFC6550-03C8-4733-8D9B-57AB33817B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF2EF61-6941-46EB-89DF-FDBCECA59F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="  Nouns" sheetId="1" r:id="rId1"/>
     <sheet name="  Verbs Present Tense" sheetId="2" r:id="rId2"/>
     <sheet name="  Adjectives" sheetId="3" r:id="rId3"/>
     <sheet name="  Phrases  Sentences" sheetId="4" r:id="rId4"/>
-    <sheet name="  Connectors  Conjunctions" sheetId="5" r:id="rId5"/>
-    <sheet name="  Phrases Added Recently" sheetId="6" r:id="rId6"/>
-    <sheet name="  Duolingo Differences  Variant" sheetId="7" r:id="rId7"/>
+    <sheet name="  Duolingo Differences  Variant" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="106">
+  <si>
+    <t>English</t>
+  </si>
   <si>
     <t>Welsh</t>
   </si>
   <si>
-    <t>English</t>
-  </si>
-  <si>
     <t>IPA</t>
   </si>
   <si>
+    <t>breakfast</t>
+  </si>
+  <si>
+    <t>dinner/supper</t>
+  </si>
+  <si>
+    <t>dragon</t>
+  </si>
+  <si>
+    <t>girl</t>
+  </si>
+  <si>
+    <t>lunch</t>
+  </si>
+  <si>
+    <t>man</t>
+  </si>
+  <si>
+    <t>raspberries</t>
+  </si>
+  <si>
+    <t>the afternoon</t>
+  </si>
+  <si>
+    <t>vegetables</t>
+  </si>
+  <si>
+    <t>woman</t>
+  </si>
+  <si>
+    <t>yoga</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>##</t>
+  </si>
+  <si>
+    <t>brecwast</t>
+  </si>
+  <si>
+    <t>swper</t>
+  </si>
+  <si>
     <t>draig</t>
   </si>
   <si>
+    <t>merch</t>
+  </si>
+  <si>
+    <t>cinio</t>
+  </si>
+  <si>
     <t>dyn</t>
   </si>
   <si>
-    <t>merch</t>
-  </si>
-  <si>
-    <t>bachgen</t>
+    <t>mafon</t>
+  </si>
+  <si>
+    <t>y prynhawn</t>
+  </si>
+  <si>
+    <t>llysiau</t>
   </si>
   <si>
     <t>menyw</t>
   </si>
   <si>
-    <t>llysiau</t>
-  </si>
-  <si>
-    <t>mafon</t>
-  </si>
-  <si>
     <t>ioga</t>
   </si>
   <si>
-    <t>cig</t>
-  </si>
-  <si>
-    <t>madarch</t>
-  </si>
-  <si>
-    <t>bara</t>
-  </si>
-  <si>
-    <t>coffi</t>
-  </si>
-  <si>
-    <t>---</t>
-  </si>
-  <si>
-    <t>dragon</t>
-  </si>
-  <si>
-    <t>man</t>
-  </si>
-  <si>
-    <t>girl</t>
-  </si>
-  <si>
-    <t>boy</t>
-  </si>
-  <si>
-    <t>woman</t>
-  </si>
-  <si>
-    <t>vegetables</t>
-  </si>
-  <si>
-    <t>raspberries</t>
-  </si>
-  <si>
-    <t>yoga</t>
-  </si>
-  <si>
-    <t>meat</t>
-  </si>
-  <si>
-    <t>mushrooms</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>coffee</t>
+    <t>/ˈbrɛkʊst/</t>
+  </si>
+  <si>
+    <t>/ˈsɪʊpɛr/</t>
   </si>
   <si>
     <t>/draɪɡ/</t>
   </si>
   <si>
+    <t>/mɛrχ/</t>
+  </si>
+  <si>
+    <t>/ˈkɪnjo/</t>
+  </si>
+  <si>
     <t>/dɨːn/ (North) or /dɪn/ (South)</t>
   </si>
   <si>
-    <t>/mɛrχ/</t>
-  </si>
-  <si>
-    <t>/ˈbaxɡɛn/</t>
+    <t>/ˈmaːvɔn/</t>
+  </si>
+  <si>
+    <t>/ə prənˈhaʊn/</t>
+  </si>
+  <si>
+    <t>/ˈɦɪʃaɪ/</t>
   </si>
   <si>
     <t>/ˈmɛnɨu/ or /ˈmɛnɪw/</t>
   </si>
   <si>
-    <t>/ˈɦɪʃaɪ/</t>
-  </si>
-  <si>
-    <t>/ˈmaːvɔn/</t>
-  </si>
-  <si>
     <t>/ˈjɔɡa/</t>
   </si>
   <si>
-    <t>/kɪɡ/</t>
-  </si>
-  <si>
-    <t>/ˈmadarχ/</t>
-  </si>
-  <si>
-    <t>/ˈbara/</t>
-  </si>
-  <si>
-    <t>/ˈkɔfi/</t>
+    <t>I am</t>
+  </si>
+  <si>
+    <t>I am tired</t>
+  </si>
+  <si>
+    <t>I like</t>
+  </si>
+  <si>
+    <t>do you like</t>
+  </si>
+  <si>
+    <t>to eat</t>
+  </si>
+  <si>
+    <t>you are</t>
+  </si>
+  <si>
+    <t>dw i</t>
+  </si>
+  <si>
+    <t>dw i'n flinedig</t>
   </si>
   <si>
     <t>dw i'n hoffi</t>
@@ -154,70 +170,16 @@
     <t>dych chi'n hoffi</t>
   </si>
   <si>
+    <t>bwyta</t>
+  </si>
+  <si>
     <t>dych chi</t>
   </si>
   <si>
-    <t>dw i</t>
-  </si>
-  <si>
-    <t>dw i'n flinedig</t>
-  </si>
-  <si>
-    <t>bwyta</t>
-  </si>
-  <si>
-    <t>dw i'n mwynhau gwylio'r teledu</t>
-  </si>
-  <si>
-    <t>dw i'n mwynhau te</t>
-  </si>
-  <si>
-    <t>dw i'n prynu cig</t>
-  </si>
-  <si>
-    <t>dw i'n prynu mafon, cennin, parsnis, pys a mefus</t>
-  </si>
-  <si>
-    <t>dw i'n prynu selsig a phineapll</t>
-  </si>
-  <si>
-    <t>rwy'n yfed dŵr a gwrw</t>
-  </si>
-  <si>
-    <t>I like</t>
-  </si>
-  <si>
-    <t>do you like</t>
-  </si>
-  <si>
-    <t>you are</t>
-  </si>
-  <si>
-    <t>I am</t>
-  </si>
-  <si>
-    <t>I am tired</t>
-  </si>
-  <si>
-    <t>to eat</t>
-  </si>
-  <si>
-    <t>I enjoy watching TV</t>
-  </si>
-  <si>
-    <t>I enjoy tea</t>
-  </si>
-  <si>
-    <t>I am buying meat</t>
-  </si>
-  <si>
-    <t>I am buying raspberries, leeks, parsnips, peas and strawberries</t>
-  </si>
-  <si>
-    <t>I am buying sausages and pineapple</t>
-  </si>
-  <si>
-    <t>I drink water and beer</t>
+    <t>/du iː/</t>
+  </si>
+  <si>
+    <t>/du iːn vlɪˈnɛdɪɡ/</t>
   </si>
   <si>
     <t>/du iːn ˈhɔfɪ/</t>
@@ -226,255 +188,147 @@
     <t>/dəχ χiːn ˈhɔfɪ/</t>
   </si>
   <si>
+    <t>/ˈbɪɨta/</t>
+  </si>
+  <si>
     <t>/dɒχ χiː/</t>
   </si>
   <si>
-    <t>/du iː/</t>
-  </si>
-  <si>
-    <t>/du iːn vlɪˈnɛdɪɡ/</t>
-  </si>
-  <si>
-    <t>/ˈbɪɨta/</t>
-  </si>
-  <si>
-    <t>/du iːn ˈmʊɨnhaɨ ˈɡʊɨljɔ ɾ tɛˈlɛdɨ/</t>
-  </si>
-  <si>
-    <t>/du iːn ˈmʊɨnhaɨ te/</t>
-  </si>
-  <si>
-    <t>/du iːn ˈprɨnɨ kɪɡ/</t>
-  </si>
-  <si>
-    <t>/du iːn ˈprɨnɨ ˈmaːvɔn, ˈkɛnɪn, ˈparsnɪs, pɨs a ˈmɛvɨs/</t>
-  </si>
-  <si>
-    <t>/du iːn ˈprɨnɨ ˈsɛlsɪɡ a pʰɪˈnɛapɬ/</t>
-  </si>
-  <si>
-    <t>/rəʊn əˈvɛd dɨːr a ɡʊrʊ/</t>
+    <t>tired</t>
   </si>
   <si>
     <t>flinedig</t>
   </si>
   <si>
-    <t>tired</t>
-  </si>
-  <si>
     <t>/vlɪˈnɛdɪɡ/</t>
   </si>
   <si>
+    <t>bye</t>
+  </si>
+  <si>
+    <t>do you like eating raspberries?</t>
+  </si>
+  <si>
+    <t>don't you like vegetables either?</t>
+  </si>
+  <si>
+    <t>fine, all right</t>
+  </si>
+  <si>
+    <t>good morning</t>
+  </si>
+  <si>
+    <t>good night</t>
+  </si>
+  <si>
+    <t>how are you?</t>
+  </si>
+  <si>
+    <t>I am a man</t>
+  </si>
+  <si>
+    <t>I like yoga</t>
+  </si>
+  <si>
+    <t>no thanks</t>
+  </si>
+  <si>
+    <t>very well, thanks</t>
+  </si>
+  <si>
+    <t>welcome</t>
+  </si>
+  <si>
+    <t>who</t>
+  </si>
+  <si>
+    <t>you are a woman</t>
+  </si>
+  <si>
+    <t>hwyl</t>
+  </si>
+  <si>
+    <t>dych chi'n hoffi bwyta mafon?</t>
+  </si>
+  <si>
+    <t>dych chi ddim yn hoffi llysiau ychwaith?</t>
+  </si>
+  <si>
+    <t>iawn</t>
+  </si>
+  <si>
     <t>bore da</t>
   </si>
   <si>
     <t>nos da</t>
   </si>
   <si>
-    <t>hwyl</t>
+    <t>sut dych chi?</t>
+  </si>
+  <si>
+    <t>dw i'n ddyn</t>
+  </si>
+  <si>
+    <t>dw i'n hoffi ioga</t>
+  </si>
+  <si>
+    <t>nac ydw, diolch</t>
+  </si>
+  <si>
+    <t>yn dda iawn, diolch</t>
   </si>
   <si>
     <t>croeso</t>
   </si>
   <si>
-    <t>dw i'n ddyn</t>
+    <t>pwy</t>
   </si>
   <si>
     <t>dych chi'n fenyw</t>
   </si>
   <si>
-    <t>sut dych chi?</t>
-  </si>
-  <si>
-    <t>yn dda iawn, diolch</t>
-  </si>
-  <si>
-    <t>nac ydw, diolch</t>
-  </si>
-  <si>
-    <t>iawn</t>
-  </si>
-  <si>
-    <t>pwy</t>
-  </si>
-  <si>
-    <t>dw i'n hoffi ioga</t>
-  </si>
-  <si>
-    <t>dych chi ddim yn hoffi llysiau ychwaith?</t>
-  </si>
-  <si>
-    <t>dych chi'n hoffi bwyta mafon?</t>
-  </si>
-  <si>
-    <t>dw i ddim yn hoffi mafon ychwaith</t>
-  </si>
-  <si>
-    <t>good morning</t>
-  </si>
-  <si>
-    <t>good night</t>
-  </si>
-  <si>
-    <t>bye</t>
-  </si>
-  <si>
-    <t>welcome</t>
-  </si>
-  <si>
-    <t>I am a man</t>
-  </si>
-  <si>
-    <t>you are a woman</t>
-  </si>
-  <si>
-    <t>how are you?</t>
-  </si>
-  <si>
-    <t>very well, thanks</t>
-  </si>
-  <si>
-    <t>no thanks</t>
-  </si>
-  <si>
-    <t>fine, all right</t>
-  </si>
-  <si>
-    <t>who</t>
-  </si>
-  <si>
-    <t>I like yoga</t>
-  </si>
-  <si>
-    <t>don't you like vegetables either?</t>
-  </si>
-  <si>
-    <t>do you like eating raspberries?</t>
-  </si>
-  <si>
-    <t>I don't like raspberries either</t>
-  </si>
-  <si>
-    <t>I enjoy TV</t>
+    <t>/huɨl/</t>
+  </si>
+  <si>
+    <t>/dɒχ χiːn ˈhɔfɪ ˈbɪɨta ˈmaːvɔn/</t>
+  </si>
+  <si>
+    <t>/dɒχ χiː ðɪm ən ˈhɔfɪ ˈɦɪʃaɪ əˈχwaɨθ/</t>
+  </si>
+  <si>
+    <t>/jaʊn/</t>
   </si>
   <si>
     <t>/ˈbɔrɛ da/</t>
   </si>
   <si>
-    <t>/nɒs da/</t>
-  </si>
-  <si>
-    <t>/huːɪl/</t>
+    <t>/nɔs da/</t>
+  </si>
+  <si>
+    <t>/sɨt dɒχ χiː/</t>
+  </si>
+  <si>
+    <t>/du iːn ðɨːn/</t>
+  </si>
+  <si>
+    <t>/du iːn ˈhɔfɪ ˈjɔɡa/</t>
+  </si>
+  <si>
+    <t>/nak ˈədʊ ˈdiːɔχ/</t>
+  </si>
+  <si>
+    <t>/ən ðaː ˈjaʊn ˈdiːɔχ/</t>
   </si>
   <si>
     <t>/ˈkrɔɪsɔ/</t>
   </si>
   <si>
-    <t>/du iːn ðɨːn/</t>
+    <t>/pʊɨ/</t>
   </si>
   <si>
     <t>/dɒχ χiːn ˈvɛnɨu/</t>
   </si>
   <si>
-    <t>/sɨt dɒχ χiː/</t>
-  </si>
-  <si>
-    <t>/ən ðaː ˈjaʊn ˈdiːɔχ/</t>
-  </si>
-  <si>
-    <t>/nak ˈədʊ ˈdiːɔχ/</t>
-  </si>
-  <si>
-    <t>/jaʊn/</t>
-  </si>
-  <si>
-    <t>/pʊɨ/</t>
-  </si>
-  <si>
-    <t>/du iːn ˈhɔfɪ ˈjɔɡa/</t>
-  </si>
-  <si>
-    <t>/dɒχ χiː ðɪm ən ˈhɔfɪ ˈɦɪʃaɪ əˈχwaɨθ/</t>
-  </si>
-  <si>
-    <t>/dɒχ χiːn ˈhɔfɪ ˈbɪɨta ˈmaːvɔn/</t>
-  </si>
-  <si>
-    <t>/du iː ðɪm ən ˈhɔfɪ ˈmaːvɔn əˈχwaɨθ/</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>ond</t>
-  </si>
-  <si>
-    <t>oherwydd</t>
-  </si>
-  <si>
-    <t>neu</t>
-  </si>
-  <si>
-    <t>felly</t>
-  </si>
-  <si>
-    <t>os</t>
-  </si>
-  <si>
-    <t>er mwyn</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>but</t>
-  </si>
-  <si>
-    <t>because</t>
-  </si>
-  <si>
-    <t>or</t>
-  </si>
-  <si>
-    <t>therefore</t>
-  </si>
-  <si>
-    <t>if</t>
-  </si>
-  <si>
-    <t>in order to</t>
-  </si>
-  <si>
-    <t>/a/</t>
-  </si>
-  <si>
-    <t>/ɔnd/</t>
-  </si>
-  <si>
-    <t>/oɣɛrˈhɔd/</t>
-  </si>
-  <si>
-    <t>/nɨ/</t>
-  </si>
-  <si>
-    <t>/ˈfɛɬɨ/</t>
-  </si>
-  <si>
-    <t>/os/</t>
-  </si>
-  <si>
-    <t>/ɛr ˈmʊɨn/</t>
-  </si>
-  <si>
-    <t>noswaith dda</t>
-  </si>
-  <si>
-    <t>good evening</t>
-  </si>
-  <si>
-    <t>/nɔsˈwaɪθ ðɑ/</t>
-  </si>
-  <si>
     <t>Your Term</t>
   </si>
   <si>
@@ -487,25 +341,7 @@
     <t>wedi blino</t>
   </si>
   <si>
-    <t>dyn dw i</t>
-  </si>
-  <si>
-    <t>dim diolch</t>
-  </si>
-  <si>
-    <t>da iawn, diolch</t>
-  </si>
-  <si>
-    <t>"flinedig" is an adjective; "wedi blino" is a verb phrase meaning "have tired". Both mean "tired" but differ grammatically.</t>
-  </si>
-  <si>
-    <t>“dw i'n ddyn” is the normal way to say “I am a man”; “dyn dw i” is poetic/emphatic word order emphasizing “man.”</t>
-  </si>
-  <si>
-    <t>“nac ydw, diolch” is a polite refusal with verb and thanks; “dim diolch” is a shorter, more casual “no thanks.”</t>
-  </si>
-  <si>
-    <t>“yn dda iawn, diolch” is the full phrase with particle “yn”; “da iawn, diolch” is a shorter, colloquial version.</t>
+    <t>"flinedig" is an adjective; "wedi blino" is a verb phrase meaning "have tired". Both translate as "tired" but come from different grammatical roots.</t>
   </si>
 </sst>
 </file>
@@ -879,16 +715,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -911,7 +747,7 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -922,7 +758,7 @@
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -933,7 +769,7 @@
         <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -944,7 +780,7 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -955,7 +791,7 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -966,7 +802,7 @@
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -977,7 +813,7 @@
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -988,7 +824,7 @@
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -999,7 +835,7 @@
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -1010,7 +846,7 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -1021,22 +857,16 @@
         <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1047,11 +877,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -1066,138 +903,77 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1208,11 +984,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="6.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7265625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -1227,17 +1010,22 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1248,11 +1036,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="27.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.453125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -1267,193 +1062,165 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="C7" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C8" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="B10" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="B11" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="B12" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="C12" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="B13" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="C13" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="B14" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="C14" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="B15" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="C15" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>93</v>
-      </c>
-      <c r="B16" t="s">
-        <v>108</v>
-      </c>
-      <c r="C16" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" t="s">
-        <v>109</v>
-      </c>
-      <c r="C17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1464,218 +1231,39 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>130</v>
-      </c>
-      <c r="B7" t="s">
-        <v>137</v>
-      </c>
-      <c r="C7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="70" style="3" customWidth="1"/>
+    <col min="3" max="3" width="75.453125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>150</v>
+        <v>102</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>151</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>159</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelIntegration/data/welsh_vocab_builder.xlsx
+++ b/ExcelIntegration/data/welsh_vocab_builder.xlsx
@@ -1,30 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sandbox\git\aadennis\PythonSandboxAA\ExcelIntegration\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF2EF61-6941-46EB-89DF-FDBCECA59F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="  Nouns" sheetId="1" r:id="rId1"/>
     <sheet name="  Verbs Present Tense" sheetId="2" r:id="rId2"/>
     <sheet name="  Adjectives" sheetId="3" r:id="rId3"/>
-    <sheet name="  Phrases  Sentences" sheetId="4" r:id="rId4"/>
-    <sheet name="  Duolingo Differences  Variant" sheetId="5" r:id="rId5"/>
+    <sheet name="  Connectors  Conjunctions" sheetId="4" r:id="rId4"/>
+    <sheet name="  Prepositions" sheetId="5" r:id="rId5"/>
+    <sheet name="  Phrases  Sentences" sheetId="6" r:id="rId6"/>
+    <sheet name="  Duolingo Differences  Variant" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="178">
   <si>
     <t>English</t>
   </si>
@@ -38,6 +34,15 @@
     <t>breakfast</t>
   </si>
   <si>
+    <t>butter</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
     <t>dinner/supper</t>
   </si>
   <si>
@@ -53,12 +58,33 @@
     <t>man</t>
   </si>
   <si>
+    <t>oranges</t>
+  </si>
+  <si>
     <t>raspberries</t>
   </si>
   <si>
+    <t>strawberry</t>
+  </si>
+  <si>
+    <t>strawberries</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
     <t>the afternoon</t>
   </si>
   <si>
+    <t>toy</t>
+  </si>
+  <si>
+    <t>toys</t>
+  </si>
+  <si>
+    <t>vegetable</t>
+  </si>
+  <si>
     <t>vegetables</t>
   </si>
   <si>
@@ -77,6 +103,15 @@
     <t>brecwast</t>
   </si>
   <si>
+    <t>menyn</t>
+  </si>
+  <si>
+    <t>caws</t>
+  </si>
+  <si>
+    <t>coffi</t>
+  </si>
+  <si>
     <t>swper</t>
   </si>
   <si>
@@ -92,12 +127,33 @@
     <t>dyn</t>
   </si>
   <si>
+    <t>orennau</t>
+  </si>
+  <si>
     <t>mafon</t>
   </si>
   <si>
+    <t>mefusen</t>
+  </si>
+  <si>
+    <t>mefus</t>
+  </si>
+  <si>
+    <t>te</t>
+  </si>
+  <si>
     <t>y prynhawn</t>
   </si>
   <si>
+    <t>tegan</t>
+  </si>
+  <si>
+    <t>teganau</t>
+  </si>
+  <si>
+    <t>llysieuyn</t>
+  </si>
+  <si>
     <t>llysiau</t>
   </si>
   <si>
@@ -110,6 +166,15 @@
     <t>/ˈbrɛkʊst/</t>
   </si>
   <si>
+    <t>/ˈmɛnɨn/</t>
+  </si>
+  <si>
+    <t>/kaʊs/</t>
+  </si>
+  <si>
+    <t>/ˈkɔfi/</t>
+  </si>
+  <si>
     <t>/ˈsɪʊpɛr/</t>
   </si>
   <si>
@@ -125,12 +190,33 @@
     <t>/dɨːn/ (North) or /dɪn/ (South)</t>
   </si>
   <si>
+    <t>/ɔˈrɛnai/</t>
+  </si>
+  <si>
     <t>/ˈmaːvɔn/</t>
   </si>
   <si>
+    <t>/mɛˈvɪsɛn/</t>
+  </si>
+  <si>
+    <t>/ˈmɛvɪs/</t>
+  </si>
+  <si>
+    <t>/te/</t>
+  </si>
+  <si>
     <t>/ə prənˈhaʊn/</t>
   </si>
   <si>
+    <t>/ˈtɛɡan/</t>
+  </si>
+  <si>
+    <t>/ˈtɛɡanai/</t>
+  </si>
+  <si>
+    <t>/ɬəˈʃəɨɨn/</t>
+  </si>
+  <si>
     <t>/ˈɦɪʃaɪ/</t>
   </si>
   <si>
@@ -143,54 +229,90 @@
     <t>I am</t>
   </si>
   <si>
+    <t>I am going</t>
+  </si>
+  <si>
     <t>I am tired</t>
   </si>
   <si>
+    <t>I enjoy</t>
+  </si>
+  <si>
     <t>I like</t>
   </si>
   <si>
     <t>do you like</t>
   </si>
   <si>
+    <t>to buy</t>
+  </si>
+  <si>
     <t>to eat</t>
   </si>
   <si>
+    <t>to watch</t>
+  </si>
+  <si>
     <t>you are</t>
   </si>
   <si>
     <t>dw i</t>
   </si>
   <si>
+    <t>dw i'n mynd</t>
+  </si>
+  <si>
     <t>dw i'n flinedig</t>
   </si>
   <si>
+    <t>dw i'n mwynhau</t>
+  </si>
+  <si>
     <t>dw i'n hoffi</t>
   </si>
   <si>
     <t>dych chi'n hoffi</t>
   </si>
   <si>
+    <t>prynu</t>
+  </si>
+  <si>
     <t>bwyta</t>
   </si>
   <si>
+    <t>gwylio</t>
+  </si>
+  <si>
     <t>dych chi</t>
   </si>
   <si>
     <t>/du iː/</t>
   </si>
   <si>
+    <t>/du iːn mɨnd/</t>
+  </si>
+  <si>
     <t>/du iːn vlɪˈnɛdɪɡ/</t>
   </si>
   <si>
+    <t>/du iːn ˈmʊɨnhaɨ/</t>
+  </si>
+  <si>
     <t>/du iːn ˈhɔfɪ/</t>
   </si>
   <si>
     <t>/dəχ χiːn ˈhɔfɪ/</t>
   </si>
   <si>
+    <t>/ˈprɨnɨ/</t>
+  </si>
+  <si>
     <t>/ˈbɪɨta/</t>
   </si>
   <si>
+    <t>/ˈɡʊɨljɔ/</t>
+  </si>
+  <si>
     <t>/dɒχ χiː/</t>
   </si>
   <si>
@@ -203,6 +325,78 @@
     <t>/vlɪˈnɛdɪɡ/</t>
   </si>
   <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>as well</t>
+  </si>
+  <si>
+    <t>but</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>hefyd</t>
+  </si>
+  <si>
+    <t>ond</t>
+  </si>
+  <si>
+    <t>neu</t>
+  </si>
+  <si>
+    <t>/a/</t>
+  </si>
+  <si>
+    <t>/həɨvð/</t>
+  </si>
+  <si>
+    <t>/ɔnd/</t>
+  </si>
+  <si>
+    <t>/nɛɨ/</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>here</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>where</t>
+  </si>
+  <si>
+    <t>ar</t>
+  </si>
+  <si>
+    <t>yma</t>
+  </si>
+  <si>
+    <t>yn</t>
+  </si>
+  <si>
+    <t>ble</t>
+  </si>
+  <si>
+    <t>/ar/</t>
+  </si>
+  <si>
+    <t>/ˈəma/</t>
+  </si>
+  <si>
+    <t>/ən/</t>
+  </si>
+  <si>
+    <t>/blɛ/</t>
+  </si>
+  <si>
     <t>bye</t>
   </si>
   <si>
@@ -227,9 +421,15 @@
     <t>I am a man</t>
   </si>
   <si>
+    <t>I am buying a toy for Megan</t>
+  </si>
+  <si>
     <t>I like yoga</t>
   </si>
   <si>
+    <t>I make coffee</t>
+  </si>
+  <si>
     <t>no thanks</t>
   </si>
   <si>
@@ -269,9 +469,15 @@
     <t>dw i'n ddyn</t>
   </si>
   <si>
+    <t>Dw i'n prynu tegan i Megan</t>
+  </si>
+  <si>
     <t>dw i'n hoffi ioga</t>
   </si>
   <si>
+    <t>Dw i'n gwneud coffi</t>
+  </si>
+  <si>
     <t>nac ydw, diolch</t>
   </si>
   <si>
@@ -311,7 +517,13 @@
     <t>/du iːn ðɨːn/</t>
   </si>
   <si>
+    <t>/du iːn ˈprɨnɨ ˈtɛɡan i ˈmɛɡan/</t>
+  </si>
+  <si>
     <t>/du iːn ˈhɔfɪ ˈjɔɡa/</t>
+  </si>
+  <si>
+    <t>/du iːn ˈɡʊnɛð ˈkɔfi/</t>
   </si>
   <si>
     <t>/nak ˈədʊ ˈdiːɔχ/</t>
@@ -347,8 +559,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -400,16 +612,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -417,21 +623,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -469,7 +667,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -503,7 +701,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -538,10 +735,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -714,21 +910,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.36328125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -739,135 +928,245 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -876,21 +1175,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -901,80 +1193,124 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+      <c r="B9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>77</v>
+      </c>
+      <c r="B11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -983,21 +1319,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="6.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7265625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1008,25 +1337,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1035,21 +1364,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="27.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.453125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1060,168 +1382,58 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1230,40 +1442,321 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>137</v>
+      </c>
+      <c r="B14" t="s">
+        <v>153</v>
+      </c>
+      <c r="C14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15" t="s">
+        <v>154</v>
+      </c>
+      <c r="C15" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16" t="s">
+        <v>155</v>
+      </c>
+      <c r="C16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B17" t="s">
+        <v>156</v>
+      </c>
+      <c r="C17" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="75.453125" style="3" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>101</v>
+        <v>173</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+        <v>174</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>105</v>
+        <v>176</v>
+      </c>
+      <c r="C2" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelIntegration/data/welsh_vocab_builder.xlsx
+++ b/ExcelIntegration/data/welsh_vocab_builder.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sandbox\git\aadennis\PythonSandboxAA\ExcelIntegration\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0986D9-313E-4C6F-AC38-EFAB2F65226B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="  Nouns" sheetId="1" r:id="rId1"/>
@@ -15,7 +21,7 @@
     <sheet name="  Phrases  Sentences" sheetId="6" r:id="rId6"/>
     <sheet name="  Duolingo Differences  Variant" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -559,8 +565,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -623,13 +629,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -667,7 +681,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -701,6 +715,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -735,9 +750,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -910,14 +926,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.36328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -928,7 +951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -939,7 +962,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -950,7 +973,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -961,7 +984,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -972,7 +995,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -983,7 +1006,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -994,7 +1017,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1005,7 +1028,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1016,7 +1039,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1027,7 +1050,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1038,7 +1061,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1049,7 +1072,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1060,7 +1083,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1071,7 +1094,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1082,7 +1105,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1093,7 +1116,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1104,7 +1127,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1115,7 +1138,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1126,7 +1149,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1137,7 +1160,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1148,7 +1171,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1159,12 +1182,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1175,14 +1198,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.453125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1193,7 +1219,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -1204,7 +1230,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>69</v>
       </c>
@@ -1215,7 +1241,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>70</v>
       </c>
@@ -1226,7 +1252,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>71</v>
       </c>
@@ -1237,7 +1263,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>72</v>
       </c>
@@ -1248,7 +1274,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>73</v>
       </c>
@@ -1259,7 +1285,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>74</v>
       </c>
@@ -1270,7 +1296,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>75</v>
       </c>
@@ -1281,7 +1307,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>76</v>
       </c>
@@ -1292,7 +1318,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>77</v>
       </c>
@@ -1303,12 +1329,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1319,14 +1345,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1337,7 +1363,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>98</v>
       </c>
@@ -1348,12 +1374,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1364,14 +1390,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1382,7 +1408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>101</v>
       </c>
@@ -1393,7 +1419,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>102</v>
       </c>
@@ -1404,7 +1430,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -1415,7 +1441,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -1426,12 +1452,12 @@
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -1442,14 +1468,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1460,7 +1486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>113</v>
       </c>
@@ -1471,7 +1497,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>114</v>
       </c>
@@ -1482,7 +1508,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>115</v>
       </c>
@@ -1493,7 +1519,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>116</v>
       </c>
@@ -1504,12 +1530,12 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -1520,14 +1546,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="27.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.453125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1538,7 +1571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>125</v>
       </c>
@@ -1549,7 +1582,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>126</v>
       </c>
@@ -1560,7 +1593,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>127</v>
       </c>
@@ -1571,7 +1604,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>128</v>
       </c>
@@ -1582,7 +1615,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>129</v>
       </c>
@@ -1593,7 +1626,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>130</v>
       </c>
@@ -1604,7 +1637,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>131</v>
       </c>
@@ -1615,7 +1648,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>132</v>
       </c>
@@ -1626,7 +1659,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>133</v>
       </c>
@@ -1637,7 +1670,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>134</v>
       </c>
@@ -1648,7 +1681,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>135</v>
       </c>
@@ -1659,7 +1692,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>136</v>
       </c>
@@ -1670,7 +1703,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>137</v>
       </c>
@@ -1681,7 +1714,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>138</v>
       </c>
@@ -1692,7 +1725,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>139</v>
       </c>
@@ -1703,7 +1736,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>140</v>
       </c>
@@ -1714,12 +1747,12 @@
         <v>172</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1730,14 +1763,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>173</v>
       </c>
@@ -1748,7 +1781,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>99</v>
       </c>

--- a/ExcelIntegration/data/welsh_vocab_builder.xlsx
+++ b/ExcelIntegration/data/welsh_vocab_builder.xlsx
@@ -8,25 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sandbox\git\aadennis\PythonSandboxAA\ExcelIntegration\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0986D9-313E-4C6F-AC38-EFAB2F65226B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79469264-A3FF-4CA3-B361-1970D82B92FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30828" yWindow="3684" windowWidth="30936" windowHeight="16776" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="  Nouns" sheetId="1" r:id="rId1"/>
-    <sheet name="  Verbs Present Tense" sheetId="2" r:id="rId2"/>
-    <sheet name="  Adjectives" sheetId="3" r:id="rId3"/>
-    <sheet name="  Connectors  Conjunctions" sheetId="4" r:id="rId4"/>
-    <sheet name="  Prepositions" sheetId="5" r:id="rId5"/>
-    <sheet name="  Phrases  Sentences" sheetId="6" r:id="rId6"/>
-    <sheet name="  Duolingo Differences  Variant" sheetId="7" r:id="rId7"/>
+    <sheet name=" 1  Nouns" sheetId="1" r:id="rId1"/>
+    <sheet name=" 2  Verbs Present Tense" sheetId="2" r:id="rId2"/>
+    <sheet name=" 3  Adjectives" sheetId="3" r:id="rId3"/>
+    <sheet name=" 4  Connectors  Conjunctions" sheetId="4" r:id="rId4"/>
+    <sheet name=" 5  Noun Phrases" sheetId="5" r:id="rId5"/>
+    <sheet name=" 6  Prepositions" sheetId="6" r:id="rId6"/>
+    <sheet name=" 7  Phrases  Sentences" sheetId="7" r:id="rId7"/>
+    <sheet name=" 8  Duolingo Differences  Varia" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="292">
   <si>
     <t>English</t>
   </si>
@@ -100,7 +101,13 @@
     <t>yoga</t>
   </si>
   <si>
-    <t>---</t>
+    <t>music</t>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>**END**</t>
   </si>
   <si>
     <t>##</t>
@@ -169,6 +176,12 @@
     <t>ioga</t>
   </si>
   <si>
+    <t>cerddoriaeth</t>
+  </si>
+  <si>
+    <t>ysgol</t>
+  </si>
+  <si>
     <t>/ˈbrɛkʊst/</t>
   </si>
   <si>
@@ -232,105 +245,210 @@
     <t>/ˈjɔɡa/</t>
   </si>
   <si>
+    <t>/kɛrðˈɔrjaɨθ/</t>
+  </si>
+  <si>
+    <t>/ˈəskɔl/</t>
+  </si>
+  <si>
     <t>I am</t>
   </si>
   <si>
-    <t>I am going</t>
-  </si>
-  <si>
     <t>I am tired</t>
   </si>
   <si>
+    <t>I like</t>
+  </si>
+  <si>
+    <t>do you like</t>
+  </si>
+  <si>
+    <t>to buy</t>
+  </si>
+  <si>
+    <t>to eat</t>
+  </si>
+  <si>
+    <t>to watch</t>
+  </si>
+  <si>
+    <t>you are</t>
+  </si>
+  <si>
     <t>I enjoy</t>
   </si>
   <si>
-    <t>I like</t>
-  </si>
-  <si>
-    <t>do you like</t>
-  </si>
-  <si>
-    <t>to buy</t>
-  </si>
-  <si>
-    <t>to eat</t>
-  </si>
-  <si>
-    <t>to watch</t>
-  </si>
-  <si>
-    <t>you are</t>
+    <t>I make</t>
+  </si>
+  <si>
+    <t>I walk</t>
+  </si>
+  <si>
+    <t>I drive</t>
+  </si>
+  <si>
+    <t>I learn</t>
+  </si>
+  <si>
+    <t>I live</t>
+  </si>
+  <si>
+    <t>I swim</t>
+  </si>
+  <si>
+    <t>I iron</t>
+  </si>
+  <si>
+    <t>you skip</t>
   </si>
   <si>
     <t>dw i</t>
   </si>
   <si>
-    <t>dw i'n mynd</t>
-  </si>
-  <si>
     <t>dw i'n flinedig</t>
   </si>
   <si>
+    <t>dw i'n hoffi</t>
+  </si>
+  <si>
+    <t>dych chi'n hoffi</t>
+  </si>
+  <si>
+    <t>prynu</t>
+  </si>
+  <si>
+    <t>bwyta</t>
+  </si>
+  <si>
+    <t>gwylio</t>
+  </si>
+  <si>
+    <t>dych chi</t>
+  </si>
+  <si>
     <t>dw i'n mwynhau</t>
   </si>
   <si>
-    <t>dw i'n hoffi</t>
-  </si>
-  <si>
-    <t>dych chi'n hoffi</t>
-  </si>
-  <si>
-    <t>prynu</t>
-  </si>
-  <si>
-    <t>bwyta</t>
-  </si>
-  <si>
-    <t>gwylio</t>
-  </si>
-  <si>
-    <t>dych chi</t>
+    <t>dw i'n gwneud</t>
+  </si>
+  <si>
+    <t>dw i'n cerdded</t>
+  </si>
+  <si>
+    <t>dw i'n gyrru</t>
+  </si>
+  <si>
+    <t>dw i'n dysgu</t>
+  </si>
+  <si>
+    <t>dw i'n byw</t>
+  </si>
+  <si>
+    <t>dw i'n nofio</t>
+  </si>
+  <si>
+    <t>dw i'n sgwrio</t>
+  </si>
+  <si>
+    <t>dych chi'n sgipio</t>
   </si>
   <si>
     <t>/du iː/</t>
   </si>
   <si>
-    <t>/du iːn mɨnd/</t>
-  </si>
-  <si>
     <t>/du iːn vlɪˈnɛdɪɡ/</t>
   </si>
   <si>
+    <t>/du iːn ˈhɔfɪ/</t>
+  </si>
+  <si>
+    <t>/dəχ χiːn ˈhɔfɪ/</t>
+  </si>
+  <si>
+    <t>/ˈprɨnɨ/</t>
+  </si>
+  <si>
+    <t>/ˈbɪɨta/</t>
+  </si>
+  <si>
+    <t>/ˈɡʊɨljɔ/</t>
+  </si>
+  <si>
+    <t>/dɒχ χiː/</t>
+  </si>
+  <si>
     <t>/du iːn ˈmʊɨnhaɨ/</t>
   </si>
   <si>
-    <t>/du iːn ˈhɔfɪ/</t>
-  </si>
-  <si>
-    <t>/dəχ χiːn ˈhɔfɪ/</t>
-  </si>
-  <si>
-    <t>/ˈprɨnɨ/</t>
-  </si>
-  <si>
-    <t>/ˈbɪɨta/</t>
-  </si>
-  <si>
-    <t>/ˈɡʊɨljɔ/</t>
-  </si>
-  <si>
-    <t>/dɒχ χiː/</t>
+    <t>/du iːn ˈɡʊnɛð/</t>
+  </si>
+  <si>
+    <t>/du iːn ˈkɛrðɛd/</t>
+  </si>
+  <si>
+    <t>/du iːn ˈɡɪrɨ/</t>
+  </si>
+  <si>
+    <t>/du iːn ˈdɪsgɪ/</t>
+  </si>
+  <si>
+    <t>/du iːn bɨu̯/</t>
+  </si>
+  <si>
+    <t>/du iːn ˈnɔvjɔ/</t>
+  </si>
+  <si>
+    <t>/du iːn ˈsgʊrɪɔ/</t>
+  </si>
+  <si>
+    <t>/dəχ χiːn ˈsgɪpjɔ/</t>
   </si>
   <si>
     <t>tired</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>hungry</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>flinedig</t>
   </si>
   <si>
+    <t>hapus</t>
+  </si>
+  <si>
+    <t>newynog</t>
+  </si>
+  <si>
+    <t>glas</t>
+  </si>
+  <si>
+    <t>diddorol</t>
+  </si>
+  <si>
     <t>/vlɪˈnɛdɪɡ/</t>
   </si>
   <si>
+    <t>/ˈhapɨs/</t>
+  </si>
+  <si>
+    <t>/ˈnɛwɨnɔɡ/</t>
+  </si>
+  <si>
+    <t>/ɡlas/</t>
+  </si>
+  <si>
+    <t>/ˈdɪðɔrɔl/</t>
+  </si>
+  <si>
     <t>and</t>
   </si>
   <si>
@@ -343,6 +461,15 @@
     <t>or</t>
   </si>
   <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>therefore</t>
+  </si>
+  <si>
+    <t>although</t>
+  </si>
+  <si>
     <t>a</t>
   </si>
   <si>
@@ -355,6 +482,15 @@
     <t>neu</t>
   </si>
   <si>
+    <t>serch hynny</t>
+  </si>
+  <si>
+    <t>felly</t>
+  </si>
+  <si>
+    <t>er bod</t>
+  </si>
+  <si>
     <t>/a/</t>
   </si>
   <si>
@@ -367,6 +503,60 @@
     <t>/nɛɨ/</t>
   </si>
   <si>
+    <t>/sɛrx ˈhənɨ/</t>
+  </si>
+  <si>
+    <t>/ˈvɛɬi/</t>
+  </si>
+  <si>
+    <t>/ɛr boːd/</t>
+  </si>
+  <si>
+    <t>a hungry dragon</t>
+  </si>
+  <si>
+    <t>the happy girl</t>
+  </si>
+  <si>
+    <t>an interesting school</t>
+  </si>
+  <si>
+    <t>the blue toy</t>
+  </si>
+  <si>
+    <t>a tired man</t>
+  </si>
+  <si>
+    <t>draig newynog</t>
+  </si>
+  <si>
+    <t>y ferch hapus</t>
+  </si>
+  <si>
+    <t>ysgol ddiddorol</t>
+  </si>
+  <si>
+    <t>y tegan glas</t>
+  </si>
+  <si>
+    <t>dyn flinedig</t>
+  </si>
+  <si>
+    <t>/draɪɡ ˈnɛwɨnɔɡ/</t>
+  </si>
+  <si>
+    <t>/ə vɛrχ ˈhapɨs/</t>
+  </si>
+  <si>
+    <t>/ˈəskɔl ˈdɪðɔrɔl/</t>
+  </si>
+  <si>
+    <t>/ə ˈtɛɡan ɡlas/</t>
+  </si>
+  <si>
+    <t>/dɨːn vlɪˈnɛdɪɡ/ (North) or /dɪn vlɪˈnɛdɪɡ/ (South)</t>
+  </si>
+  <si>
     <t>for</t>
   </si>
   <si>
@@ -379,6 +569,15 @@
     <t>where</t>
   </si>
   <si>
+    <t>out</t>
+  </si>
+  <si>
+    <t>with</t>
+  </si>
+  <si>
+    <t>without</t>
+  </si>
+  <si>
     <t>ar</t>
   </si>
   <si>
@@ -391,6 +590,15 @@
     <t>ble</t>
   </si>
   <si>
+    <t>allan</t>
+  </si>
+  <si>
+    <t>gyda</t>
+  </si>
+  <si>
+    <t>heb</t>
+  </si>
+  <si>
     <t>/ar/</t>
   </si>
   <si>
@@ -403,30 +611,63 @@
     <t>/blɛ/</t>
   </si>
   <si>
+    <t>/ˈaɬan/</t>
+  </si>
+  <si>
+    <t>/ˈɡɨða/</t>
+  </si>
+  <si>
+    <t>/hɛb/</t>
+  </si>
+  <si>
+    <t>**🗣️ Greetings**</t>
+  </si>
+  <si>
     <t>bye</t>
   </si>
   <si>
+    <t>fine, all right</t>
+  </si>
+  <si>
+    <t>good morning</t>
+  </si>
+  <si>
+    <t>good night</t>
+  </si>
+  <si>
+    <t>very well, thanks</t>
+  </si>
+  <si>
+    <t>no thanks</t>
+  </si>
+  <si>
+    <t>welcome</t>
+  </si>
+  <si>
+    <t>**❓ Questions**</t>
+  </si>
+  <si>
+    <t>how are you?</t>
+  </si>
+  <si>
     <t>do you like eating raspberries?</t>
   </si>
   <si>
     <t>don't you like vegetables either?</t>
   </si>
   <si>
-    <t>fine, all right</t>
-  </si>
-  <si>
-    <t>good morning</t>
-  </si>
-  <si>
-    <t>good night</t>
-  </si>
-  <si>
-    <t>how are you?</t>
+    <t>who</t>
+  </si>
+  <si>
+    <t>**🧺 Daily Activities**</t>
   </si>
   <si>
     <t>I am a man</t>
   </si>
   <si>
+    <t>you are a woman</t>
+  </si>
+  <si>
     <t>I am buying a toy for Megan</t>
   </si>
   <si>
@@ -436,45 +677,66 @@
     <t>I make coffee</t>
   </si>
   <si>
-    <t>no thanks</t>
-  </si>
-  <si>
-    <t>very well, thanks</t>
-  </si>
-  <si>
-    <t>welcome</t>
-  </si>
-  <si>
-    <t>who</t>
-  </si>
-  <si>
-    <t>you are a woman</t>
+    <t>I don't enjoy watching TV</t>
+  </si>
+  <si>
+    <t>I am learning to make cheese</t>
+  </si>
+  <si>
+    <t>I am walking</t>
+  </si>
+  <si>
+    <t>I like driving</t>
+  </si>
+  <si>
+    <t>I learn Welsh</t>
+  </si>
+  <si>
+    <t>I like ironing</t>
+  </si>
+  <si>
+    <t>you love Megan *(familiar)*</t>
   </si>
   <si>
     <t>hwyl</t>
   </si>
   <si>
+    <t>iawn</t>
+  </si>
+  <si>
+    <t>bore da</t>
+  </si>
+  <si>
+    <t>nos da</t>
+  </si>
+  <si>
+    <t>yn dda iawn, diolch</t>
+  </si>
+  <si>
+    <t>nac ydw, diolch</t>
+  </si>
+  <si>
+    <t>croeso</t>
+  </si>
+  <si>
+    <t>sut dych chi?</t>
+  </si>
+  <si>
     <t>dych chi'n hoffi bwyta mafon?</t>
   </si>
   <si>
     <t>dych chi ddim yn hoffi llysiau ychwaith?</t>
   </si>
   <si>
-    <t>iawn</t>
-  </si>
-  <si>
-    <t>bore da</t>
-  </si>
-  <si>
-    <t>nos da</t>
-  </si>
-  <si>
-    <t>sut dych chi?</t>
+    <t>pwy</t>
   </si>
   <si>
     <t>dw i'n ddyn</t>
   </si>
   <si>
+    <t>dych chi'n fenyw</t>
+  </si>
+  <si>
     <t>Dw i'n prynu tegan i Megan</t>
   </si>
   <si>
@@ -484,45 +746,66 @@
     <t>Dw i'n gwneud coffi</t>
   </si>
   <si>
-    <t>nac ydw, diolch</t>
-  </si>
-  <si>
-    <t>yn dda iawn, diolch</t>
-  </si>
-  <si>
-    <t>croeso</t>
-  </si>
-  <si>
-    <t>pwy</t>
-  </si>
-  <si>
-    <t>dych chi'n fenyw</t>
+    <t>Dw i ddim yn mwynhau gwylio TV</t>
+  </si>
+  <si>
+    <t>Dw i'n dysgu gwneud caws</t>
+  </si>
+  <si>
+    <t>Dw i'n cerdded</t>
+  </si>
+  <si>
+    <t>Dw i'n hoffi gyrru</t>
+  </si>
+  <si>
+    <t>Dw i'n dysgu Cymraeg</t>
+  </si>
+  <si>
+    <t>Dw i'n hoffi sgwrio</t>
+  </si>
+  <si>
+    <t>wyt ti’n caru Megan</t>
   </si>
   <si>
     <t>/huɨl/</t>
   </si>
   <si>
+    <t>/jaʊn/</t>
+  </si>
+  <si>
+    <t>/ˈbɔrɛ da/</t>
+  </si>
+  <si>
+    <t>/nɔs da/</t>
+  </si>
+  <si>
+    <t>/ən ðaː ˈjaʊn ˈdiːɔχ/</t>
+  </si>
+  <si>
+    <t>/nak ˈədʊ ˈdiːɔχ/</t>
+  </si>
+  <si>
+    <t>/ˈkrɔɪsɔ/</t>
+  </si>
+  <si>
+    <t>/sɨt dɒχ χiː/</t>
+  </si>
+  <si>
     <t>/dɒχ χiːn ˈhɔfɪ ˈbɪɨta ˈmaːvɔn/</t>
   </si>
   <si>
     <t>/dɒχ χiː ðɪm ən ˈhɔfɪ ˈɦɪʃaɪ əˈχwaɨθ/</t>
   </si>
   <si>
-    <t>/jaʊn/</t>
-  </si>
-  <si>
-    <t>/ˈbɔrɛ da/</t>
-  </si>
-  <si>
-    <t>/nɔs da/</t>
-  </si>
-  <si>
-    <t>/sɨt dɒχ χiː/</t>
+    <t>/pʊɨ/</t>
   </si>
   <si>
     <t>/du iːn ðɨːn/</t>
   </si>
   <si>
+    <t>/dɒχ χiːn ˈvɛnɨu/</t>
+  </si>
+  <si>
     <t>/du iːn ˈprɨnɨ ˈtɛɡan i ˈmɛɡan/</t>
   </si>
   <si>
@@ -532,19 +815,22 @@
     <t>/du iːn ˈɡʊnɛð ˈkɔfi/</t>
   </si>
   <si>
-    <t>/nak ˈədʊ ˈdiːɔχ/</t>
-  </si>
-  <si>
-    <t>/ən ðaː ˈjaʊn ˈdiːɔχ/</t>
-  </si>
-  <si>
-    <t>/ˈkrɔɪsɔ/</t>
-  </si>
-  <si>
-    <t>/pʊɨ/</t>
-  </si>
-  <si>
-    <t>/dɒχ χiːn ˈvɛnɨu/</t>
+    <t>/du iː ðɪm ən ˈmʊɨnhaɨ ˈɡʊɨljɔ tiː viː/</t>
+  </si>
+  <si>
+    <t>/du iːn ˈdɪsgɪ ˈɡʊnɛð kaʊs/</t>
+  </si>
+  <si>
+    <t>/du iːn ˈhɔfɪ ˈɡɪrɨ/</t>
+  </si>
+  <si>
+    <t>/du iːn ˈdɪsgɪ kəmˈraɨɡ/</t>
+  </si>
+  <si>
+    <t>/du iːn ˈhɔfɪ ˈsgʊrɪɔ/</t>
+  </si>
+  <si>
+    <t>/ʊɨt tiːn ˈkarɨ ˈmɛɡan/</t>
   </si>
   <si>
     <t>Your Term</t>
@@ -556,10 +842,67 @@
     <t>Notes</t>
   </si>
   <si>
+    <t>sgwrio</t>
+  </si>
+  <si>
+    <t>dw i’n hoffi</t>
+  </si>
+  <si>
+    <t>llefrith</t>
+  </si>
+  <si>
+    <t>rwan</t>
+  </si>
+  <si>
+    <t>##### **END BLOCK 2**</t>
+  </si>
+  <si>
     <t>wedi blino</t>
   </si>
   <si>
+    <t>smwddio</t>
+  </si>
+  <si>
+    <t>rwy’n hoffi</t>
+  </si>
+  <si>
+    <t>paned</t>
+  </si>
+  <si>
+    <t>geneth</t>
+  </si>
+  <si>
+    <t>llaeth</t>
+  </si>
+  <si>
+    <t>nawr</t>
+  </si>
+  <si>
+    <t>mas</t>
+  </si>
+  <si>
     <t>"flinedig" is an adjective; "wedi blino" is a verb phrase meaning "have tired". Both translate as "tired" but come from different grammatical roots.</t>
+  </si>
+  <si>
+    <t>"sgwrio" means "to iron" clothes specifically; "smwddio" means "to smooth" and can imply ironing but is more general</t>
+  </si>
+  <si>
+    <t>Both mean "I like" — "dw i" is commonly taught in spoken Welsh courses, while "rwy’n" appears in more formal or literary contexts including Duolingo.</t>
+  </si>
+  <si>
+    <t>"coffi" is the drink itself; "paned" means "a cuppa" or "a cup of [drink]", often used conversationally.</t>
+  </si>
+  <si>
+    <t>Both mean "girl" — "merch" is more common in South Wales, while "geneth" is used more frequently in Northern dialects.</t>
+  </si>
+  <si>
+    <t>Both mean "milk" — "llefrith" is preferred in North Wales, while "llaeth" dominates in the South. Some North Walians associate "llaeth" with buttermilk.</t>
+  </si>
+  <si>
+    <t>Both mean "now" — "rwan" is more common in spoken North Welsh; "nawr" is standard and used in signage and formal writing across Wales.</t>
+  </si>
+  <si>
+    <t>Both mean "out" — "allan" is used formally and in North Wales; "mas" is informal and more common in South Wales.</t>
   </si>
 </sst>
 </file>
@@ -927,426 +1270,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.36328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="13.453125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1365,23 +1289,265 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>100</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1389,8 +1555,229 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1410,56 +1797,178 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="C2" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="C3" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="C4" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="B5" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1471,6 +1980,102 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1488,273 +2093,89 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>176</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>183</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>177</v>
       </c>
       <c r="B3" t="s">
-        <v>118</v>
+        <v>184</v>
       </c>
       <c r="C3" t="s">
-        <v>122</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>178</v>
       </c>
       <c r="B4" t="s">
-        <v>119</v>
+        <v>185</v>
       </c>
       <c r="C4" t="s">
-        <v>123</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>179</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>186</v>
       </c>
       <c r="C5" t="s">
-        <v>124</v>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>181</v>
+      </c>
+      <c r="B7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C8" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="27.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.453125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B5" t="s">
-        <v>144</v>
-      </c>
-      <c r="C5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B6" t="s">
-        <v>145</v>
-      </c>
-      <c r="C6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>130</v>
-      </c>
-      <c r="B7" t="s">
-        <v>146</v>
-      </c>
-      <c r="C7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B8" t="s">
-        <v>147</v>
-      </c>
-      <c r="C8" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B9" t="s">
-        <v>148</v>
-      </c>
-      <c r="C9" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>133</v>
-      </c>
-      <c r="B10" t="s">
-        <v>149</v>
-      </c>
-      <c r="C10" t="s">
-        <v>165</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>134</v>
-      </c>
-      <c r="B11" t="s">
-        <v>150</v>
-      </c>
-      <c r="C11" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>135</v>
-      </c>
-      <c r="B12" t="s">
-        <v>151</v>
-      </c>
-      <c r="C12" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>136</v>
-      </c>
-      <c r="B13" t="s">
-        <v>152</v>
-      </c>
-      <c r="C13" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>137</v>
-      </c>
-      <c r="B14" t="s">
-        <v>153</v>
-      </c>
-      <c r="C14" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>138</v>
-      </c>
-      <c r="B15" t="s">
-        <v>154</v>
-      </c>
-      <c r="C15" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>139</v>
-      </c>
-      <c r="B16" t="s">
-        <v>155</v>
-      </c>
-      <c r="C16" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>140</v>
-      </c>
-      <c r="B17" t="s">
-        <v>156</v>
-      </c>
-      <c r="C17" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1764,7 +2185,309 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B8" t="s">
+        <v>228</v>
+      </c>
+      <c r="C8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>204</v>
+      </c>
+      <c r="B9" t="s">
+        <v>229</v>
+      </c>
+      <c r="C9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>206</v>
+      </c>
+      <c r="B12" t="s">
+        <v>230</v>
+      </c>
+      <c r="C12" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>207</v>
+      </c>
+      <c r="B13" t="s">
+        <v>231</v>
+      </c>
+      <c r="C13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>208</v>
+      </c>
+      <c r="B14" t="s">
+        <v>232</v>
+      </c>
+      <c r="C14" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>209</v>
+      </c>
+      <c r="B15" t="s">
+        <v>233</v>
+      </c>
+      <c r="C15" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>211</v>
+      </c>
+      <c r="B18" t="s">
+        <v>234</v>
+      </c>
+      <c r="C18" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>212</v>
+      </c>
+      <c r="B19" t="s">
+        <v>235</v>
+      </c>
+      <c r="C19" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>213</v>
+      </c>
+      <c r="B20" t="s">
+        <v>236</v>
+      </c>
+      <c r="C20" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>214</v>
+      </c>
+      <c r="B21" t="s">
+        <v>237</v>
+      </c>
+      <c r="C21" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>215</v>
+      </c>
+      <c r="B22" t="s">
+        <v>238</v>
+      </c>
+      <c r="C22" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>216</v>
+      </c>
+      <c r="B23" t="s">
+        <v>239</v>
+      </c>
+      <c r="C23" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>217</v>
+      </c>
+      <c r="B24" t="s">
+        <v>240</v>
+      </c>
+      <c r="C24" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>218</v>
+      </c>
+      <c r="B25" t="s">
+        <v>241</v>
+      </c>
+      <c r="C25" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>219</v>
+      </c>
+      <c r="B26" t="s">
+        <v>242</v>
+      </c>
+      <c r="C26" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>220</v>
+      </c>
+      <c r="B27" t="s">
+        <v>243</v>
+      </c>
+      <c r="C27" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>221</v>
+      </c>
+      <c r="B28" t="s">
+        <v>244</v>
+      </c>
+      <c r="C28" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>222</v>
+      </c>
+      <c r="B29" t="s">
+        <v>245</v>
+      </c>
+      <c r="C29" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1772,24 +2495,111 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>173</v>
+        <v>268</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>174</v>
+        <v>269</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>175</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B2" t="s">
-        <v>176</v>
+        <v>276</v>
       </c>
       <c r="C2" t="s">
-        <v>177</v>
+        <v>284</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>273</v>
+      </c>
+      <c r="B7" t="s">
+        <v>281</v>
+      </c>
+      <c r="C7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>274</v>
+      </c>
+      <c r="B8" t="s">
+        <v>282</v>
+      </c>
+      <c r="C8" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B9" t="s">
+        <v>283</v>
+      </c>
+      <c r="C9" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>275</v>
       </c>
     </row>
   </sheetData>
